--- a/src/main/resources/Testcases.xlsx
+++ b/src/main/resources/Testcases.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\hiring-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\prime-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D93C93-F35E-4ACF-9C1E-7A91E65F26E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B63D3B-19D7-4ABC-97A8-A49F2BE06786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1520" yWindow="10690" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testStatusCodeEquals200" sheetId="1" r:id="rId1"/>
     <sheet name="testStatusCodeEquals400" sheetId="2" r:id="rId2"/>
+    <sheet name="testStatusCodeEquals500" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>testcase</t>
   </si>
@@ -68,6 +69,36 @@
   </si>
   <si>
     <t>10e</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>46346£%</t>
+  </si>
+  <si>
+    <t>£%nnjjlk</t>
+  </si>
+  <si>
+    <t>q35</t>
+  </si>
+  <si>
+    <t>53q£5</t>
+  </si>
+  <si>
+    <t>£%£%%Q</t>
+  </si>
+  <si>
+    <t>qq35%</t>
+  </si>
+  <si>
+    <t>90%()</t>
+  </si>
+  <si>
+    <t>99+44</t>
+  </si>
+  <si>
+    <t>e^10</t>
   </si>
 </sst>
 </file>
@@ -111,10 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,119 +444,119 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>47477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>687845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1241241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>35352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>236263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3623662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>215125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -532,7 +564,7 @@
         <v>12351</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -540,15 +572,15 @@
         <v>2356326</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -556,7 +588,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -564,12 +596,92 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>34636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>363454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>626262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>236662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>997789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>657111</v>
       </c>
     </row>
   </sheetData>
@@ -580,15 +692,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB7AAAB-0977-4550-9308-D9618207B298}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10.5345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-3252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-3535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>55234.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19BE33F-3261-4E0C-BB9B-52C89CA8B638}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,164 +971,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.5345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>-3252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-3535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>55234.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Testcases.xlsx
+++ b/src/main/resources/Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\prime-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\PrimeAutomationRepository\prime-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B63D3B-19D7-4ABC-97A8-A49F2BE06786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094EBB2-7761-46B7-981D-703DE80EA54B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1520" yWindow="10690" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>testcase</t>
   </si>
@@ -71,34 +71,37 @@
     <t>10e</t>
   </si>
   <si>
+    <t>46346£%</t>
+  </si>
+  <si>
+    <t>£%nnjjlk</t>
+  </si>
+  <si>
+    <t>q35</t>
+  </si>
+  <si>
+    <t>53q£5</t>
+  </si>
+  <si>
+    <t>£%£%%Q</t>
+  </si>
+  <si>
+    <t>qq35%</t>
+  </si>
+  <si>
+    <t>90%()</t>
+  </si>
+  <si>
+    <t>99+44</t>
+  </si>
+  <si>
+    <t>e^10</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
-    <t>46346£%</t>
-  </si>
-  <si>
-    <t>£%nnjjlk</t>
-  </si>
-  <si>
-    <t>q35</t>
-  </si>
-  <si>
-    <t>53q£5</t>
-  </si>
-  <si>
-    <t>£%£%%Q</t>
-  </si>
-  <si>
-    <t>qq35%</t>
-  </si>
-  <si>
-    <t>90%()</t>
-  </si>
-  <si>
-    <t>99+44</t>
-  </si>
-  <si>
-    <t>e^10</t>
+    <t>1/10</t>
   </si>
 </sst>
 </file>
@@ -142,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,7 +877,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +893,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +925,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +933,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +949,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +962,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,16 +995,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.01</v>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/main/resources/Testcases.xlsx
+++ b/src/main/resources/Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\PrimeAutomationRepository\prime-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094EBB2-7761-46B7-981D-703DE80EA54B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D397F-0C4B-4844-A73C-D0D419AB4F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1520" yWindow="10690" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,7 +962,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/Testcases.xlsx
+++ b/src/main/resources/Testcases.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\PrimeAutomationRepository\prime-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\myrepo\prime-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D397F-0C4B-4844-A73C-D0D419AB4F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7DB76-CDD9-4D1C-81B9-9170E2263C58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1520" yWindow="10690" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1520" yWindow="10690" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="testStatusCodeEquals200" sheetId="1" r:id="rId1"/>
-    <sheet name="testStatusCodeEquals400" sheetId="2" r:id="rId2"/>
-    <sheet name="testStatusCodeEquals500" sheetId="4" r:id="rId3"/>
+    <sheet name="testSuccessfulResponse" sheetId="1" r:id="rId1"/>
+    <sheet name="testNonPositiveIntegerResponse" sheetId="2" r:id="rId2"/>
+    <sheet name="testErrorResponse" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,9 +38,6 @@
     <t>wgwgwg</t>
   </si>
   <si>
-    <t>^*^8</t>
-  </si>
-  <si>
     <t>80808*</t>
   </si>
   <si>
@@ -62,27 +59,9 @@
     <t>10"fmm</t>
   </si>
   <si>
-    <t>gghsrhs</t>
-  </si>
-  <si>
-    <t>flpqlfp)</t>
-  </si>
-  <si>
-    <t>10e</t>
-  </si>
-  <si>
     <t>46346£%</t>
   </si>
   <si>
-    <t>£%nnjjlk</t>
-  </si>
-  <si>
-    <t>q35</t>
-  </si>
-  <si>
-    <t>53q£5</t>
-  </si>
-  <si>
     <t>£%£%%Q</t>
   </si>
   <si>
@@ -102,13 +81,56 @@
   </si>
   <si>
     <t>1/10</t>
+  </si>
+  <si>
+    <r>
+      <t>^*^8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ↄ⑳⓮±£Ꞩﻻﻻ</t>
+    </r>
+  </si>
+  <si>
+    <t>10eꞨﻻﻻ</t>
+  </si>
+  <si>
+    <t>flpqlfp)£Ꞩ</t>
+  </si>
+  <si>
+    <r>
+      <t>q35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>÷</t>
+    </r>
+  </si>
+  <si>
+    <t>Ḇ𝖢𝕯٤ḞԍНǏ𝙅ƘԸⲘ</t>
+  </si>
+  <si>
+    <t>ăѣ𝔠ծềſģ</t>
+  </si>
+  <si>
+    <t>ψ𝒙𝘆𝚣12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +145,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,12 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +734,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -797,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,7 +848,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -829,7 +864,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,15 +872,15 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +904,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +936,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +952,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +968,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +976,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,11 +984,12 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -961,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19BE33F-3261-4E0C-BB9B-52C89CA8B638}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/main/resources/Testcases.xlsx
+++ b/src/main/resources/Testcases.xlsx
@@ -5,29 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\myrepo\prime-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristofer Radzinsh\prime-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7DB76-CDD9-4D1C-81B9-9170E2263C58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A51B26-BF0B-41CF-99EC-9A392F9C68A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1520" yWindow="10690" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1520" yWindow="10690" windowWidth="21820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testSuccessfulResponse" sheetId="1" r:id="rId1"/>
     <sheet name="testNonPositiveIntegerResponse" sheetId="2" r:id="rId2"/>
     <sheet name="testErrorResponse" sheetId="4" r:id="rId3"/>
+    <sheet name="testPerformance" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>testcase</t>
   </si>
@@ -468,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +1008,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,4 +1061,307 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7648294-A5D2-44C4-A7A1-FAC8928C1251}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>23657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>53456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>96967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>145767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>284674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>785858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>964747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1447474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2363467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2734696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3525325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4163463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4745788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6353533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7945747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8435363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>9453534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>9738448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>10646636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>11252352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>12634636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>